--- a/src/main/resources/xlsx/party/party_member_template.xlsx
+++ b/src/main/resources/xlsx/party/party_member_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CBC34D-4396-48AF-BF87-0AD727BDDB34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,25 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>副书记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书  记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委  员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,12 +75,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +208,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,9 +228,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,239 +508,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:8" ht="55.9" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.45" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="34.9" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="34.9" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.9" customHeight="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.9" customHeight="1">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.9" customHeight="1">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.9" customHeight="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.9" customHeight="1">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.9" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="34.9" customHeight="1">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.9" customHeight="1">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.9" customHeight="1">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="54.6" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/xlsx/party/party_member_template.xlsx
+++ b/src/main/resources/xlsx/party/party_member_template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CBC34D-4396-48AF-BF87-0AD727BDDB34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,12 +46,6 @@
   </si>
   <si>
     <t>统计日期：2017年2月  日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：
-1. 分党委（党总支、直属党支部）在换届之后调整委员的，以调整后的为准；
-2. 分工填写“组织委员、宣传委员、统战委员、纪检委员、青年委员”等方式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,12 +68,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +87,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -185,49 +171,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,14 +488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -528,9 +508,9 @@
     <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.9" customHeight="1">
+    <row r="1" spans="1:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -540,9 +520,9 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="26.45" customHeight="1">
+    <row r="2" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -552,7 +532,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="34.9" customHeight="1">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,13 +552,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.9" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -590,7 +570,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="34.9" customHeight="1">
+    <row r="5" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -602,7 +582,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="34.9" customHeight="1">
+    <row r="6" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -614,7 +594,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="34.9" customHeight="1">
+    <row r="7" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -626,7 +606,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="34.9" customHeight="1">
+    <row r="8" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -638,7 +618,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="34.9" customHeight="1">
+    <row r="9" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -650,7 +630,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="34.9" customHeight="1">
+    <row r="10" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -662,7 +642,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="34.9" customHeight="1">
+    <row r="11" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -674,7 +654,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="34.9" customHeight="1">
+    <row r="12" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -686,7 +666,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="34.9" customHeight="1">
+    <row r="13" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -698,7 +678,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1">
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -710,24 +690,11 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="54.6" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
